--- a/KẾ-HOẠCH-CHI-TIẾT (1).xlsx
+++ b/KẾ-HOẠCH-CHI-TIẾT (1).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="19100" windowHeight="7270"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
   <si>
     <t>KẾ HOẠCH &amp; PHÂN CÔNG LÀM ĐỒ ÁN MÔN CẤU TRÚC DỮ LIỆU VÀ GIẢI THUẬT</t>
   </si>
@@ -53,7 +53,7 @@
     <t>21/09/2018</t>
   </si>
   <si>
-    <t> Khai báo cấu trúc của 1 nút</t>
+    <t>Khai báo cấu trúc của 1 nút</t>
   </si>
   <si>
     <t>14/09/2018</t>
@@ -62,19 +62,13 @@
     <t>Khởi tạo cây</t>
   </si>
   <si>
-    <t>22/09/2018</t>
-  </si>
-  <si>
-    <t>29/09/2018</t>
-  </si>
-  <si>
-    <t> Kiểm tra cây rỗng</t>
+    <t>Kiểm tra cây rỗng</t>
   </si>
   <si>
     <t>Tạo 1 nút cho cây</t>
   </si>
   <si>
-    <t> Chèn 1 nút vào cây có sẵn</t>
+    <t>Chèn 1 nút vào cây có sẵn</t>
   </si>
   <si>
     <t>Tìm kiếm </t>
@@ -92,16 +86,22 @@
     <t>Hàm hủy cây</t>
   </si>
   <si>
-    <t>Tạo cơ sỡ dữ liệu</t>
-  </si>
-  <si>
-    <t>sắp xếp dữ liệu</t>
-  </si>
-  <si>
-    <t>tối ưu hóa dữ liệu</t>
-  </si>
-  <si>
-    <t>kiến trúc chương trình</t>
+    <t>Tạo cơ sở dữ liệu</t>
+  </si>
+  <si>
+    <t>15/09/2018</t>
+  </si>
+  <si>
+    <t>30/09/2018</t>
+  </si>
+  <si>
+    <t>Sắp xếp dữ liệu</t>
+  </si>
+  <si>
+    <t>Tối ưu hóa dữ liệu</t>
+  </si>
+  <si>
+    <t>Kiến trúc chương trình</t>
   </si>
   <si>
     <t>Nạp dữ liệu vào form các mảng</t>
@@ -122,25 +122,37 @@
     <t>13/10/2018</t>
   </si>
   <si>
+    <t>26/10/2018</t>
+  </si>
+  <si>
+    <t>Giao diện thêm từ</t>
+  </si>
+  <si>
+    <t>Giao diện văn bản</t>
+  </si>
+  <si>
+    <t>Giao diện lưu từ trong word store</t>
+  </si>
+  <si>
+    <t>Giao diện About Us</t>
+  </si>
+  <si>
+    <t>Các background để người dùng lựa chọn</t>
+  </si>
+  <si>
+    <t>Thử nghiệm &amp; Sửa lỗi</t>
+  </si>
+  <si>
+    <t>27/10/2018</t>
+  </si>
+  <si>
     <t>31/10/2018</t>
   </si>
   <si>
-    <t>Giao diện thêm từ</t>
-  </si>
-  <si>
-    <t>Giao diện văn bản</t>
-  </si>
-  <si>
-    <t>Giao diện lưu từ trong word store</t>
-  </si>
-  <si>
-    <t>Giao diện About Us</t>
-  </si>
-  <si>
-    <t>Các background để người dùng lựa chọn</t>
-  </si>
-  <si>
-    <t>Thử nghiệm</t>
+    <t>Làm bài báo cáo Word</t>
+  </si>
+  <si>
+    <t>Trình bày trên PowerPoint</t>
   </si>
 </sst>
 </file>
@@ -148,9 +160,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="24">
@@ -190,14 +202,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,101 +231,64 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -318,16 +300,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -342,6 +354,162 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -354,175 +522,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -652,11 +664,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -665,7 +683,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -703,6 +721,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -724,21 +751,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -752,7 +764,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -768,134 +780,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -928,13 +940,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -951,25 +959,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1293,22 +1292,22 @@
   <sheetPr/>
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="46" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.1428571428571" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.4285714285714" style="3" customWidth="1"/>
-    <col min="5" max="5" width="15.752380952381" style="3" customWidth="1"/>
-    <col min="6" max="6" width="0.0952380952380952" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="20.1454545454545" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.4272727272727" style="3" customWidth="1"/>
+    <col min="5" max="5" width="15.7545454545455" style="3" customWidth="1"/>
+    <col min="6" max="6" width="0.0909090909090909" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="9" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" ht="37" customHeight="1" spans="1:7">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1319,7 +1318,7 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" ht="15.75" spans="1:7">
+    <row r="2" ht="43" customHeight="1" spans="1:7">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1330,7 +1329,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" ht="15.75" spans="1:7">
+    <row r="3" ht="15.25" spans="1:7">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
@@ -1345,7 +1344,7 @@
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
     </row>
-    <row r="4" ht="15.75" spans="1:7">
+    <row r="4" ht="15.25" spans="1:7">
       <c r="A4" s="11"/>
       <c r="B4" s="12" t="s">
         <v>5</v>
@@ -1353,229 +1352,219 @@
       <c r="C4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="14" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="19">
+      <c r="B5" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="17">
         <v>43382</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="18" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="20" t="s">
+      <c r="B6" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="18" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>16</v>
+      <c r="B7" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>13</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="20" t="s">
+      <c r="A8" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="20" t="s">
-        <v>16</v>
+      <c r="B8" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>13</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="20" t="s">
+      <c r="A9" s="19" t="s">
         <v>16</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>13</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>16</v>
+      <c r="A10" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>13</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>16</v>
+      <c r="A11" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>13</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>16</v>
+      <c r="A12" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>13</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>16</v>
+      <c r="A13" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>13</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>16</v>
+      <c r="A14" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>13</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>16</v>
+      <c r="A15" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="16"/>
+      <c r="D15" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>13</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="17" t="s">
         <v>25</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="26">
-        <v>43110</v>
-      </c>
-      <c r="E16" s="26">
-        <v>43261</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
@@ -1584,15 +1573,17 @@
       <c r="A17" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="26">
+      <c r="B17" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="17">
         <v>43110</v>
       </c>
-      <c r="E17" s="26">
-        <v>43261</v>
+      <c r="E17" s="17">
+        <v>43322</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
@@ -1601,15 +1592,17 @@
       <c r="A18" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="26">
+      <c r="B18" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="17">
         <v>43110</v>
       </c>
-      <c r="E18" s="26">
-        <v>43261</v>
+      <c r="E18" s="17">
+        <v>43322</v>
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
@@ -1618,17 +1611,17 @@
       <c r="A19" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="26">
+      <c r="B19" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="17">
         <v>43110</v>
       </c>
-      <c r="E19" s="26">
-        <v>43261</v>
+      <c r="E19" s="17">
+        <v>43322</v>
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
@@ -1637,17 +1630,17 @@
       <c r="A20" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="26">
+      <c r="B20" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="17">
         <v>43110</v>
       </c>
-      <c r="E20" s="26">
-        <v>43261</v>
+      <c r="E20" s="17">
+        <v>43322</v>
       </c>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
@@ -1656,14 +1649,14 @@
       <c r="A21" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="26">
+      <c r="B21" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="16"/>
+      <c r="D21" s="17">
         <v>43322</v>
       </c>
-      <c r="E21" s="26">
+      <c r="E21" s="17">
         <v>43414</v>
       </c>
       <c r="F21" s="10"/>
@@ -1673,14 +1666,14 @@
       <c r="A22" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="26">
+      <c r="B22" s="20"/>
+      <c r="C22" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="17">
         <v>43322</v>
       </c>
-      <c r="E22" s="26">
+      <c r="E22" s="17">
         <v>43414</v>
       </c>
     </row>
@@ -1688,14 +1681,14 @@
       <c r="A23" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="26">
+      <c r="B23" s="20"/>
+      <c r="C23" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="17">
         <v>43322</v>
       </c>
-      <c r="E23" s="26">
+      <c r="E23" s="17">
         <v>43414</v>
       </c>
     </row>
@@ -1703,14 +1696,14 @@
       <c r="A24" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="27"/>
-      <c r="C24" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="29" t="s">
+      <c r="B24" s="20"/>
+      <c r="C24" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="E24" s="29" t="s">
+      <c r="E24" s="21" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1718,14 +1711,14 @@
       <c r="A25" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="27"/>
-      <c r="C25" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="29" t="s">
+      <c r="B25" s="20"/>
+      <c r="C25" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="E25" s="29" t="s">
+      <c r="E25" s="21" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1733,14 +1726,14 @@
       <c r="A26" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="29" t="s">
+      <c r="B26" s="20"/>
+      <c r="C26" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="E26" s="29" t="s">
+      <c r="E26" s="21" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1748,14 +1741,14 @@
       <c r="A27" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="27"/>
-      <c r="C27" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" s="29" t="s">
+      <c r="B27" s="20"/>
+      <c r="C27" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="E27" s="29" t="s">
+      <c r="E27" s="21" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1763,14 +1756,14 @@
       <c r="A28" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" s="29" t="s">
+      <c r="B28" s="20"/>
+      <c r="C28" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="E28" s="29" t="s">
+      <c r="E28" s="21" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1778,16 +1771,16 @@
       <c r="A29" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="29" t="s">
+      <c r="B29" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="E29" s="29" t="s">
+      <c r="E29" s="21" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1795,18 +1788,60 @@
       <c r="A30" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="29" t="s">
-        <v>35</v>
-      </c>
+      <c r="B30" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="22">
+        <v>43111</v>
+      </c>
+      <c r="E31" s="22">
+        <v>43111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="22">
+        <v>43111</v>
+      </c>
+      <c r="E32" s="22">
+        <v>43111</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" s="23"/>
+      <c r="C33" s="24"/>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" s="23"/>
+      <c r="C34" s="24"/>
     </row>
     <row r="49" ht="17" customHeight="1"/>
   </sheetData>
